--- a/data/pca/factorExposure/factorExposure_2015-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01775028361211792</v>
+        <v>0.01067530198028299</v>
       </c>
       <c r="C2">
-        <v>-0.03433090271808095</v>
+        <v>0.05290536656313945</v>
       </c>
       <c r="D2">
-        <v>0.1297682303798276</v>
+        <v>0.1037776732953165</v>
       </c>
       <c r="E2">
-        <v>0.07244100881647413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.06533028907811506</v>
+      </c>
+      <c r="F2">
+        <v>0.03636969216097386</v>
+      </c>
+      <c r="G2">
+        <v>-0.1423218283155527</v>
+      </c>
+      <c r="H2">
+        <v>-0.06214048255511007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04522645670295893</v>
+        <v>0.02033404499452968</v>
       </c>
       <c r="C4">
-        <v>-0.07883720200525186</v>
+        <v>0.1146782295115508</v>
       </c>
       <c r="D4">
-        <v>0.09070852978955468</v>
+        <v>0.1022215828628699</v>
       </c>
       <c r="E4">
-        <v>0.1254237615009626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.06979313401452392</v>
+      </c>
+      <c r="F4">
+        <v>0.09118028547621403</v>
+      </c>
+      <c r="G4">
+        <v>-0.02024283464648631</v>
+      </c>
+      <c r="H4">
+        <v>0.07044893143667705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02923776092490798</v>
+        <v>0.03351892662569037</v>
       </c>
       <c r="C6">
-        <v>-0.02087356559599452</v>
+        <v>0.03929710511647146</v>
       </c>
       <c r="D6">
-        <v>0.09862835115638562</v>
+        <v>0.08384059916996769</v>
       </c>
       <c r="E6">
-        <v>0.08289895266798954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.09766089122308956</v>
+      </c>
+      <c r="F6">
+        <v>0.03925952779828201</v>
+      </c>
+      <c r="G6">
+        <v>0.002605664822845476</v>
+      </c>
+      <c r="H6">
+        <v>-0.01047231563103887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003942503664568722</v>
+        <v>0.006086216077628524</v>
       </c>
       <c r="C7">
-        <v>-0.02707624401244357</v>
+        <v>0.04227464238956513</v>
       </c>
       <c r="D7">
-        <v>0.0913127846403738</v>
+        <v>0.07667648539265023</v>
       </c>
       <c r="E7">
-        <v>0.05139097738800073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08950719954350711</v>
+      </c>
+      <c r="F7">
+        <v>0.01373656003821808</v>
+      </c>
+      <c r="G7">
+        <v>0.008015452727434874</v>
+      </c>
+      <c r="H7">
+        <v>0.02623256920278979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0006634412948167306</v>
+        <v>-0.004852649548404381</v>
       </c>
       <c r="C8">
-        <v>-0.02906063237594085</v>
+        <v>0.03766196772428371</v>
       </c>
       <c r="D8">
-        <v>0.06901797944453429</v>
+        <v>0.05252088573339504</v>
       </c>
       <c r="E8">
-        <v>0.06862096194871027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05613695898488499</v>
+      </c>
+      <c r="F8">
+        <v>0.0504343820260674</v>
+      </c>
+      <c r="G8">
+        <v>-0.07316167881678921</v>
+      </c>
+      <c r="H8">
+        <v>0.03896304370082582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03377053218638788</v>
+        <v>0.01409486879524951</v>
       </c>
       <c r="C9">
-        <v>-0.06894482905436318</v>
+        <v>0.09413010906267193</v>
       </c>
       <c r="D9">
-        <v>0.09510437162737255</v>
+        <v>0.08851320618691058</v>
       </c>
       <c r="E9">
-        <v>0.1044300276412384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.06131238329665539</v>
+      </c>
+      <c r="F9">
+        <v>0.06088687705268173</v>
+      </c>
+      <c r="G9">
+        <v>-0.003424485386442941</v>
+      </c>
+      <c r="H9">
+        <v>0.0240714310766496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1972972332817686</v>
+        <v>0.2447821217282243</v>
       </c>
       <c r="C10">
-        <v>0.1569236395564441</v>
+        <v>-0.09216467040063743</v>
       </c>
       <c r="D10">
-        <v>-0.04166203480349224</v>
+        <v>-0.008954228113208104</v>
       </c>
       <c r="E10">
-        <v>0.0243900494153635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02190677637302771</v>
+      </c>
+      <c r="F10">
+        <v>0.04297310802679735</v>
+      </c>
+      <c r="G10">
+        <v>0.01051698816388979</v>
+      </c>
+      <c r="H10">
+        <v>0.001307169182934182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01230895343689778</v>
+        <v>0.009859599683298017</v>
       </c>
       <c r="C11">
-        <v>-0.04323982109099171</v>
+        <v>0.06143896106568835</v>
       </c>
       <c r="D11">
-        <v>0.03990352236096859</v>
+        <v>0.03119573706359739</v>
       </c>
       <c r="E11">
-        <v>-0.004708476553210886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0425100108720716</v>
+      </c>
+      <c r="F11">
+        <v>-0.009830465699497741</v>
+      </c>
+      <c r="G11">
+        <v>0.0004082928002264622</v>
+      </c>
+      <c r="H11">
+        <v>0.02007595326362097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01075710847839459</v>
+        <v>0.01005015030492545</v>
       </c>
       <c r="C12">
-        <v>-0.04271735936706858</v>
+        <v>0.05152444718267922</v>
       </c>
       <c r="D12">
-        <v>0.05478268758919044</v>
+        <v>0.04054358094337335</v>
       </c>
       <c r="E12">
-        <v>0.01657606798816842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03741409877771289</v>
+      </c>
+      <c r="F12">
+        <v>-0.01038387208903978</v>
+      </c>
+      <c r="G12">
+        <v>0.01036155855514286</v>
+      </c>
+      <c r="H12">
+        <v>-0.01739180473311789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009078495738105839</v>
+        <v>0.004279190868368417</v>
       </c>
       <c r="C13">
-        <v>-0.03072595372645814</v>
+        <v>0.0609553880666106</v>
       </c>
       <c r="D13">
-        <v>0.1190217254648462</v>
+        <v>0.1378415639652915</v>
       </c>
       <c r="E13">
-        <v>0.09417175776934869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.09398524386051907</v>
+      </c>
+      <c r="F13">
+        <v>0.04101930293382593</v>
+      </c>
+      <c r="G13">
+        <v>-0.05852941000943639</v>
+      </c>
+      <c r="H13">
+        <v>-0.073808443009358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01346260457574434</v>
+        <v>0.001399899739211145</v>
       </c>
       <c r="C14">
-        <v>-0.018597899252732</v>
+        <v>0.03340401108065305</v>
       </c>
       <c r="D14">
-        <v>0.06540192778735765</v>
+        <v>0.07631549346402215</v>
       </c>
       <c r="E14">
-        <v>0.04538355959305523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09837454433852197</v>
+      </c>
+      <c r="F14">
+        <v>0.03594246192721498</v>
+      </c>
+      <c r="G14">
+        <v>-0.0162339086455952</v>
+      </c>
+      <c r="H14">
+        <v>-0.03312422777812279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003253644888123247</v>
+        <v>-0.004086200045958513</v>
       </c>
       <c r="C15">
-        <v>-0.01265746604823331</v>
+        <v>0.03075472688023</v>
       </c>
       <c r="D15">
-        <v>0.04749700269974973</v>
+        <v>0.05679094166286003</v>
       </c>
       <c r="E15">
-        <v>0.02088621773505389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.04587311600516807</v>
+      </c>
+      <c r="F15">
+        <v>0.01007963149244242</v>
+      </c>
+      <c r="G15">
+        <v>-0.02561163211933552</v>
+      </c>
+      <c r="H15">
+        <v>0.01188108368891989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01155230394807362</v>
+        <v>0.009035531370503261</v>
       </c>
       <c r="C16">
-        <v>-0.04031996672733515</v>
+        <v>0.05323541490074323</v>
       </c>
       <c r="D16">
-        <v>0.0431546925057514</v>
+        <v>0.03458255325416397</v>
       </c>
       <c r="E16">
-        <v>0.007995127942692692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04110796708496315</v>
+      </c>
+      <c r="F16">
+        <v>-0.006145351214402215</v>
+      </c>
+      <c r="G16">
+        <v>0.01359071674169242</v>
+      </c>
+      <c r="H16">
+        <v>0.00810352860151301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.002835186613940254</v>
+        <v>-0.003570973924027164</v>
       </c>
       <c r="C19">
-        <v>-0.02184807702677475</v>
+        <v>0.01609119667781972</v>
       </c>
       <c r="D19">
-        <v>0.05651585034368362</v>
+        <v>0.03204757090781674</v>
       </c>
       <c r="E19">
-        <v>0.03998810670791797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006156580109885437</v>
+      </c>
+      <c r="F19">
+        <v>0.007631901568652833</v>
+      </c>
+      <c r="G19">
+        <v>-0.01753354782750443</v>
+      </c>
+      <c r="H19">
+        <v>-0.01407265413861973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-9.569898687019455e-05</v>
+        <v>0.004556071252621083</v>
       </c>
       <c r="C20">
-        <v>-0.02894045151058404</v>
+        <v>0.04583172341357535</v>
       </c>
       <c r="D20">
-        <v>0.06181179585429409</v>
+        <v>0.0689506884156332</v>
       </c>
       <c r="E20">
-        <v>0.06177535799095422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05783584162623473</v>
+      </c>
+      <c r="F20">
+        <v>0.02362389619518879</v>
+      </c>
+      <c r="G20">
+        <v>0.01131855300397458</v>
+      </c>
+      <c r="H20">
+        <v>0.02983087689419151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001251324528911858</v>
+        <v>0.001204829233078944</v>
       </c>
       <c r="C21">
-        <v>-0.03420304826674789</v>
+        <v>0.0468833491954779</v>
       </c>
       <c r="D21">
-        <v>0.1007463785144659</v>
+        <v>0.1023519080784426</v>
       </c>
       <c r="E21">
-        <v>0.1372246168492086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.07557426719649847</v>
+      </c>
+      <c r="F21">
+        <v>0.09801173781543056</v>
+      </c>
+      <c r="G21">
+        <v>-0.06605310111344351</v>
+      </c>
+      <c r="H21">
+        <v>-0.08905594122368812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002470406756884911</v>
+        <v>-0.00808245451280361</v>
       </c>
       <c r="C22">
-        <v>-0.05497242841786627</v>
+        <v>0.0849952869221574</v>
       </c>
       <c r="D22">
-        <v>0.2020899205509817</v>
+        <v>0.2117154456189121</v>
       </c>
       <c r="E22">
-        <v>0.1205043774007092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.08311659071163306</v>
+      </c>
+      <c r="F22">
+        <v>0.04374259869412157</v>
+      </c>
+      <c r="G22">
+        <v>-0.2418047234617238</v>
+      </c>
+      <c r="H22">
+        <v>0.1180844513162233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00290131891753353</v>
+        <v>-0.004969768361669262</v>
       </c>
       <c r="C23">
-        <v>-0.05535893065831845</v>
+        <v>0.08711955811635171</v>
       </c>
       <c r="D23">
-        <v>0.2009617101000209</v>
+        <v>0.2149816322482555</v>
       </c>
       <c r="E23">
-        <v>0.1204306512164711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.08028412227466734</v>
+      </c>
+      <c r="F23">
+        <v>0.04647256346443199</v>
+      </c>
+      <c r="G23">
+        <v>-0.2354018925834598</v>
+      </c>
+      <c r="H23">
+        <v>0.1116952986421265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01759516243834958</v>
+        <v>0.01046215450776678</v>
       </c>
       <c r="C24">
-        <v>-0.06139562465774982</v>
+        <v>0.07116070629987885</v>
       </c>
       <c r="D24">
-        <v>0.05865248601382628</v>
+        <v>0.03533237410814205</v>
       </c>
       <c r="E24">
-        <v>0.01639042323217493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05232407693635654</v>
+      </c>
+      <c r="F24">
+        <v>-0.004557415373812029</v>
+      </c>
+      <c r="G24">
+        <v>-0.005534067468457782</v>
+      </c>
+      <c r="H24">
+        <v>0.01093199976971346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01691455147923671</v>
+        <v>0.01443200034240199</v>
       </c>
       <c r="C25">
-        <v>-0.05321030656894447</v>
+        <v>0.06525170837966067</v>
       </c>
       <c r="D25">
-        <v>0.04471022663206636</v>
+        <v>0.03735036153111423</v>
       </c>
       <c r="E25">
-        <v>0.01596085619485799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03451711328146564</v>
+      </c>
+      <c r="F25">
+        <v>-0.002967030204894311</v>
+      </c>
+      <c r="G25">
+        <v>0.009110929923458376</v>
+      </c>
+      <c r="H25">
+        <v>0.008560610811226235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005103578433848156</v>
+        <v>0.0167547548133352</v>
       </c>
       <c r="C26">
-        <v>-0.01981337177554519</v>
+        <v>0.03280812568089135</v>
       </c>
       <c r="D26">
-        <v>0.05454041950805823</v>
+        <v>0.04384941477178163</v>
       </c>
       <c r="E26">
-        <v>0.0467819266071866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.07315864639557922</v>
+      </c>
+      <c r="F26">
+        <v>0.05025298789561745</v>
+      </c>
+      <c r="G26">
+        <v>-0.02875505887068773</v>
+      </c>
+      <c r="H26">
+        <v>-0.003472878648117849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.278546850031221</v>
+        <v>0.3136958576772672</v>
       </c>
       <c r="C28">
-        <v>0.1683295200290375</v>
+        <v>-0.08835562175175714</v>
       </c>
       <c r="D28">
-        <v>-0.01123241316724679</v>
+        <v>-0.01009771243011178</v>
       </c>
       <c r="E28">
-        <v>0.02910370445222993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05487196961174932</v>
+      </c>
+      <c r="F28">
+        <v>0.04505832197790585</v>
+      </c>
+      <c r="G28">
+        <v>-0.05781505356519831</v>
+      </c>
+      <c r="H28">
+        <v>0.02455194309588116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005520452132820907</v>
+        <v>0.0005993009990246858</v>
       </c>
       <c r="C29">
-        <v>-0.02271733603847443</v>
+        <v>0.04017423868661962</v>
       </c>
       <c r="D29">
-        <v>0.06786477427184089</v>
+        <v>0.0841222605238314</v>
       </c>
       <c r="E29">
-        <v>0.05705979852973318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1110494947519391</v>
+      </c>
+      <c r="F29">
+        <v>0.04034924448866968</v>
+      </c>
+      <c r="G29">
+        <v>-0.01091457074886189</v>
+      </c>
+      <c r="H29">
+        <v>-0.04418246383692716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02691196737562506</v>
+        <v>0.01729634709126422</v>
       </c>
       <c r="C30">
-        <v>-0.0747511473172903</v>
+        <v>0.09999084999530322</v>
       </c>
       <c r="D30">
-        <v>0.1394449152015521</v>
+        <v>0.1050407794343692</v>
       </c>
       <c r="E30">
-        <v>0.07977457271637489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.09943724135199991</v>
+      </c>
+      <c r="F30">
+        <v>0.01612267267452774</v>
+      </c>
+      <c r="G30">
+        <v>-0.02210787771301594</v>
+      </c>
+      <c r="H30">
+        <v>0.04507418405425612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03219047014312675</v>
+        <v>0.0104354679384395</v>
       </c>
       <c r="C31">
-        <v>-0.08489455368398556</v>
+        <v>0.09532523802914662</v>
       </c>
       <c r="D31">
-        <v>0.04765991226679801</v>
+        <v>0.02591004041149825</v>
       </c>
       <c r="E31">
-        <v>0.02916733627903027</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0282802220596929</v>
+      </c>
+      <c r="F31">
+        <v>0.01853352995929165</v>
+      </c>
+      <c r="G31">
+        <v>-0.01916495640265293</v>
+      </c>
+      <c r="H31">
+        <v>0.00640778932593196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01512339609882196</v>
+        <v>0.01289176030758648</v>
       </c>
       <c r="C32">
-        <v>-0.04273874322250733</v>
+        <v>0.05207795594077736</v>
       </c>
       <c r="D32">
-        <v>0.08178841369725129</v>
+        <v>0.08070196683865669</v>
       </c>
       <c r="E32">
-        <v>0.08667517548627933</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0192273128341996</v>
+      </c>
+      <c r="F32">
+        <v>0.04789241380864167</v>
+      </c>
+      <c r="G32">
+        <v>-0.02673444917635973</v>
+      </c>
+      <c r="H32">
+        <v>-0.02716200096324104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004548605243936415</v>
+        <v>0.006679552044051681</v>
       </c>
       <c r="C33">
-        <v>-0.04271140020110597</v>
+        <v>0.06603461550059092</v>
       </c>
       <c r="D33">
-        <v>0.0954241299344738</v>
+        <v>0.0975373099784707</v>
       </c>
       <c r="E33">
-        <v>0.07648557056487269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.07435914072956341</v>
+      </c>
+      <c r="F33">
+        <v>0.03076568188094222</v>
+      </c>
+      <c r="G33">
+        <v>-0.009341617987926914</v>
+      </c>
+      <c r="H33">
+        <v>0.0003735807998015102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01410471556493234</v>
+        <v>0.008764851297043751</v>
       </c>
       <c r="C34">
-        <v>-0.06142135601466891</v>
+        <v>0.06285495934447458</v>
       </c>
       <c r="D34">
-        <v>0.05339054907148052</v>
+        <v>0.01673102930655675</v>
       </c>
       <c r="E34">
-        <v>-0.030742925673194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03692186904404977</v>
+      </c>
+      <c r="F34">
+        <v>-0.03782546469570264</v>
+      </c>
+      <c r="G34">
+        <v>-0.00563087874069197</v>
+      </c>
+      <c r="H34">
+        <v>-0.002050695337760311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002169521315361773</v>
+        <v>0.004274496117395728</v>
       </c>
       <c r="C35">
-        <v>-0.0008724752928327453</v>
+        <v>0.01604233381695008</v>
       </c>
       <c r="D35">
-        <v>0.000856192843482754</v>
+        <v>0.03133361253873155</v>
       </c>
       <c r="E35">
-        <v>-0.0004416601451906692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02785885809761649</v>
+      </c>
+      <c r="F35">
+        <v>0.022150851657607</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001891995052583386</v>
+      </c>
+      <c r="H35">
+        <v>-0.00708007717700005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005892784755821778</v>
+        <v>0.01116160199995431</v>
       </c>
       <c r="C36">
-        <v>-0.01057289394913783</v>
+        <v>0.02508296536185603</v>
       </c>
       <c r="D36">
-        <v>0.0548904174772234</v>
+        <v>0.05614036148679947</v>
       </c>
       <c r="E36">
-        <v>0.0694916564448521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06297655417902578</v>
+      </c>
+      <c r="F36">
+        <v>0.0512729873830117</v>
+      </c>
+      <c r="G36">
+        <v>-0.01411818139576011</v>
+      </c>
+      <c r="H36">
+        <v>-0.002429943311128749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001157924210191475</v>
+        <v>0.007578229310644791</v>
       </c>
       <c r="C38">
-        <v>-0.009631039565721998</v>
+        <v>0.03028888713748455</v>
       </c>
       <c r="D38">
-        <v>0.08427224927102663</v>
+        <v>0.08208923087901185</v>
       </c>
       <c r="E38">
-        <v>0.04463725972156875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.0545477134491352</v>
+      </c>
+      <c r="F38">
+        <v>0.009633789831468046</v>
+      </c>
+      <c r="G38">
+        <v>-0.03106682358951262</v>
+      </c>
+      <c r="H38">
+        <v>0.04045459762739309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01199828855984533</v>
+        <v>0.006321435924022701</v>
       </c>
       <c r="C39">
-        <v>-0.06327723993475624</v>
+        <v>0.08936760215556738</v>
       </c>
       <c r="D39">
-        <v>0.09973494645189709</v>
+        <v>0.07185877084525853</v>
       </c>
       <c r="E39">
-        <v>0.03554029970810824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.09253006516765268</v>
+      </c>
+      <c r="F39">
+        <v>-0.005416136108401376</v>
+      </c>
+      <c r="G39">
+        <v>-0.00432440221419246</v>
+      </c>
+      <c r="H39">
+        <v>0.006593172025318299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01464509439121598</v>
+        <v>0.0129042274975192</v>
       </c>
       <c r="C40">
-        <v>-0.02798021513301747</v>
+        <v>0.04254188998673001</v>
       </c>
       <c r="D40">
-        <v>0.1105453773934363</v>
+        <v>0.0750765693008819</v>
       </c>
       <c r="E40">
-        <v>0.03501027227557264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07376283589134951</v>
+      </c>
+      <c r="F40">
+        <v>-0.02232907175095059</v>
+      </c>
+      <c r="G40">
+        <v>-0.08454443633090718</v>
+      </c>
+      <c r="H40">
+        <v>-0.01791895618844833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007686343885663153</v>
+        <v>0.01703804923146778</v>
       </c>
       <c r="C41">
-        <v>-0.007220737427117747</v>
+        <v>0.02468683545297829</v>
       </c>
       <c r="D41">
-        <v>0.0242580656134386</v>
+        <v>0.03645825687026364</v>
       </c>
       <c r="E41">
-        <v>0.02934715637534476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02221332483019397</v>
+      </c>
+      <c r="F41">
+        <v>0.02034859384941714</v>
+      </c>
+      <c r="G41">
+        <v>-0.007239345210628743</v>
+      </c>
+      <c r="H41">
+        <v>0.005444972870170026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003974716978032618</v>
+        <v>0.008563183858668491</v>
       </c>
       <c r="C43">
-        <v>-0.002275708103209597</v>
+        <v>0.0171913088412771</v>
       </c>
       <c r="D43">
-        <v>0.04007266675095428</v>
+        <v>0.0473431730747114</v>
       </c>
       <c r="E43">
-        <v>0.03884172794394168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0353703543335871</v>
+      </c>
+      <c r="F43">
+        <v>0.02551026679984022</v>
+      </c>
+      <c r="G43">
+        <v>-0.004120855240860118</v>
+      </c>
+      <c r="H43">
+        <v>0.01774320657329401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01794825834234748</v>
+        <v>0.009516149556369355</v>
       </c>
       <c r="C44">
-        <v>-0.03075923060630382</v>
+        <v>0.05190926813130511</v>
       </c>
       <c r="D44">
-        <v>0.08915516125100473</v>
+        <v>0.08656287594671272</v>
       </c>
       <c r="E44">
-        <v>0.0954368128838739</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.08388053889243213</v>
+      </c>
+      <c r="F44">
+        <v>0.03868107532024299</v>
+      </c>
+      <c r="G44">
+        <v>-0.0422319508769696</v>
+      </c>
+      <c r="H44">
+        <v>0.02352626699982257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00108432388567293</v>
+        <v>-0.001107444519488434</v>
       </c>
       <c r="C46">
-        <v>-0.03260273368493086</v>
+        <v>0.04347309840828131</v>
       </c>
       <c r="D46">
-        <v>0.07204185414857281</v>
+        <v>0.05448434588171947</v>
       </c>
       <c r="E46">
-        <v>0.05026694390208401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.08712600221594341</v>
+      </c>
+      <c r="F46">
+        <v>0.03654665307911903</v>
+      </c>
+      <c r="G46">
+        <v>-0.02524117486762232</v>
+      </c>
+      <c r="H46">
+        <v>-0.002084067670599525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06787204657580723</v>
+        <v>0.03104631616783505</v>
       </c>
       <c r="C47">
-        <v>-0.1135783307127432</v>
+        <v>0.1244131104693074</v>
       </c>
       <c r="D47">
-        <v>0.05299605915733985</v>
+        <v>0.01920663956697926</v>
       </c>
       <c r="E47">
-        <v>0.02991982045651591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.002630176114617515</v>
+      </c>
+      <c r="F47">
+        <v>-0.002377754641303957</v>
+      </c>
+      <c r="G47">
+        <v>0.01763151644640451</v>
+      </c>
+      <c r="H47">
+        <v>0.01616749538103272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003949960619554055</v>
+        <v>0.0121219968102745</v>
       </c>
       <c r="C48">
-        <v>-0.01762442078189861</v>
+        <v>0.03415493262271938</v>
       </c>
       <c r="D48">
-        <v>0.0586258050033294</v>
+        <v>0.0614337533405345</v>
       </c>
       <c r="E48">
-        <v>0.0752991880803244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.06199170668497454</v>
+      </c>
+      <c r="F48">
+        <v>0.06007144030355208</v>
+      </c>
+      <c r="G48">
+        <v>-0.02157928879945247</v>
+      </c>
+      <c r="H48">
+        <v>0.01043750421559946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002451402147378782</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001542688502526575</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001904954351254196</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0009738222194254598</v>
+      </c>
+      <c r="F49">
+        <v>-0.001928752087500667</v>
+      </c>
+      <c r="G49">
+        <v>0.006099059298944508</v>
+      </c>
+      <c r="H49">
+        <v>-0.00489493165242197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03085087076492141</v>
+        <v>0.01433538140994086</v>
       </c>
       <c r="C50">
-        <v>-0.05864514436041258</v>
+        <v>0.07641552678608585</v>
       </c>
       <c r="D50">
-        <v>0.0580005055534721</v>
+        <v>0.0394617181554826</v>
       </c>
       <c r="E50">
-        <v>0.02496036220448788</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03499638195985589</v>
+      </c>
+      <c r="F50">
+        <v>0.009540399637027542</v>
+      </c>
+      <c r="G50">
+        <v>-0.01780695577024549</v>
+      </c>
+      <c r="H50">
+        <v>0.01801079772500481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005315799946223201</v>
+        <v>-0.004110517826219676</v>
       </c>
       <c r="C51">
-        <v>-0.005772020532216657</v>
+        <v>0.01804213030566476</v>
       </c>
       <c r="D51">
-        <v>0.05461065288727673</v>
+        <v>0.03545179071446619</v>
       </c>
       <c r="E51">
-        <v>0.0416587441075408</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05989653989364465</v>
+      </c>
+      <c r="F51">
+        <v>0.03881932573994357</v>
+      </c>
+      <c r="G51">
+        <v>-0.04714904708995089</v>
+      </c>
+      <c r="H51">
+        <v>-0.003312398801892171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1022692839886733</v>
+        <v>0.0588412108002928</v>
       </c>
       <c r="C53">
-        <v>-0.1367734687059649</v>
+        <v>0.1637220447776827</v>
       </c>
       <c r="D53">
-        <v>-0.0004315752288274595</v>
+        <v>-0.01771387270233848</v>
       </c>
       <c r="E53">
-        <v>0.0389266111754608</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02528697485535692</v>
+      </c>
+      <c r="F53">
+        <v>0.04092036119632279</v>
+      </c>
+      <c r="G53">
+        <v>-0.008038110541180841</v>
+      </c>
+      <c r="H53">
+        <v>0.005502519745811788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004492054676388015</v>
+        <v>0.01037226392637464</v>
       </c>
       <c r="C54">
-        <v>-0.02435258862715399</v>
+        <v>0.04101152054566215</v>
       </c>
       <c r="D54">
-        <v>0.08388419274856995</v>
+        <v>0.06895327234877914</v>
       </c>
       <c r="E54">
-        <v>0.04390735365413038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05334165535277312</v>
+      </c>
+      <c r="F54">
+        <v>0.01165049239309928</v>
+      </c>
+      <c r="G54">
+        <v>-0.0265375327419195</v>
+      </c>
+      <c r="H54">
+        <v>0.02524415959639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08482955510516713</v>
+        <v>0.04163122586940284</v>
       </c>
       <c r="C55">
-        <v>-0.112961984400034</v>
+        <v>0.1288292548772491</v>
       </c>
       <c r="D55">
-        <v>0.002567631034755474</v>
+        <v>-0.04516310336887458</v>
       </c>
       <c r="E55">
-        <v>-0.006908129837215496</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008823232970549707</v>
+      </c>
+      <c r="F55">
+        <v>0.002097415274502786</v>
+      </c>
+      <c r="G55">
+        <v>-0.01810040214120274</v>
+      </c>
+      <c r="H55">
+        <v>-0.003451800506470701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1241888685365014</v>
+        <v>0.05897688204022733</v>
       </c>
       <c r="C56">
-        <v>-0.1635220533591157</v>
+        <v>0.1940114080934922</v>
       </c>
       <c r="D56">
-        <v>0.02217076149780287</v>
+        <v>-0.04363788416461938</v>
       </c>
       <c r="E56">
-        <v>-0.01353364633710019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03617600984619129</v>
+      </c>
+      <c r="F56">
+        <v>0.00107264588064181</v>
+      </c>
+      <c r="G56">
+        <v>-0.06947932927685102</v>
+      </c>
+      <c r="H56">
+        <v>0.003610807619290557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004531103042147105</v>
+        <v>0.009297233149592573</v>
       </c>
       <c r="C58">
-        <v>-0.02262091340302469</v>
+        <v>0.06951551177115288</v>
       </c>
       <c r="D58">
-        <v>0.2046959727722926</v>
+        <v>0.2526348586894623</v>
       </c>
       <c r="E58">
-        <v>0.212374492228284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.1085878157040233</v>
+      </c>
+      <c r="F58">
+        <v>0.1477585429478246</v>
+      </c>
+      <c r="G58">
+        <v>-0.1641954056157146</v>
+      </c>
+      <c r="H58">
+        <v>0.0794980596336662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2040530946158528</v>
+        <v>0.2601848255989872</v>
       </c>
       <c r="C59">
-        <v>0.1217055591720415</v>
+        <v>-0.05402145336791958</v>
       </c>
       <c r="D59">
-        <v>0.04887919955480463</v>
+        <v>0.04313309705652728</v>
       </c>
       <c r="E59">
-        <v>0.04411051040239932</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01357814118577585</v>
+      </c>
+      <c r="F59">
+        <v>0.01902972752277827</v>
+      </c>
+      <c r="G59">
+        <v>-0.03212129861284312</v>
+      </c>
+      <c r="H59">
+        <v>-0.03578510596320689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1758273162359716</v>
+        <v>0.1517758366342583</v>
       </c>
       <c r="C60">
-        <v>-0.1094425361368481</v>
+        <v>0.1675644834070265</v>
       </c>
       <c r="D60">
-        <v>0.1254175343743138</v>
+        <v>0.03184505375724864</v>
       </c>
       <c r="E60">
-        <v>-0.06211494203358597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1067479394799525</v>
+      </c>
+      <c r="F60">
+        <v>-0.2051426861682359</v>
+      </c>
+      <c r="G60">
+        <v>0.2503208939433217</v>
+      </c>
+      <c r="H60">
+        <v>-0.1330064318233918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02011818900658502</v>
+        <v>0.01287055953546788</v>
       </c>
       <c r="C61">
-        <v>-0.06006385051057966</v>
+        <v>0.08250761508850685</v>
       </c>
       <c r="D61">
-        <v>0.07177651475667467</v>
+        <v>0.04709884671140229</v>
       </c>
       <c r="E61">
-        <v>0.01553942302918343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.06745458080940729</v>
+      </c>
+      <c r="F61">
+        <v>-0.01120086198757009</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001921062390104797</v>
+      </c>
+      <c r="H61">
+        <v>0.00192596477885258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009743278385026701</v>
+        <v>0.01590078676522843</v>
       </c>
       <c r="C63">
-        <v>-0.02771573652308479</v>
+        <v>0.04645236374172181</v>
       </c>
       <c r="D63">
-        <v>0.07435191341735868</v>
+        <v>0.04299738794524997</v>
       </c>
       <c r="E63">
-        <v>0.0463817405027438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.08689293854490329</v>
+      </c>
+      <c r="F63">
+        <v>0.02275521023437424</v>
+      </c>
+      <c r="G63">
+        <v>-0.008108581241039001</v>
+      </c>
+      <c r="H63">
+        <v>0.004327032920914845</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04605964525456768</v>
+        <v>0.01546991443234009</v>
       </c>
       <c r="C64">
-        <v>-0.09558696314703503</v>
+        <v>0.1053321125086043</v>
       </c>
       <c r="D64">
-        <v>0.01943428811051837</v>
+        <v>0.008920000951790262</v>
       </c>
       <c r="E64">
-        <v>0.0336352960375373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03418726329250967</v>
+      </c>
+      <c r="F64">
+        <v>0.0185503474365045</v>
+      </c>
+      <c r="G64">
+        <v>0.02933624619718541</v>
+      </c>
+      <c r="H64">
+        <v>0.04125237983162031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0255505444224565</v>
+        <v>0.02600766765960992</v>
       </c>
       <c r="C65">
-        <v>-0.01985575603913739</v>
+        <v>0.04529792620333714</v>
       </c>
       <c r="D65">
-        <v>0.09043112007073179</v>
+        <v>0.08862745825100811</v>
       </c>
       <c r="E65">
-        <v>0.0482661608771127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0773419082468685</v>
+      </c>
+      <c r="F65">
+        <v>-0.008584264174777641</v>
+      </c>
+      <c r="G65">
+        <v>0.04854853890381539</v>
+      </c>
+      <c r="H65">
+        <v>0.02359258434094539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01972600485275842</v>
+        <v>0.007430018219425771</v>
       </c>
       <c r="C66">
-        <v>-0.07570598399392216</v>
+        <v>0.1107830516719551</v>
       </c>
       <c r="D66">
-        <v>0.1229849804026121</v>
+        <v>0.09910368821308896</v>
       </c>
       <c r="E66">
-        <v>0.04179215676522608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0908644379314405</v>
+      </c>
+      <c r="F66">
+        <v>-0.005946751145079616</v>
+      </c>
+      <c r="G66">
+        <v>-0.02526954251868405</v>
+      </c>
+      <c r="H66">
+        <v>0.01137590555912609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01500241283956327</v>
+        <v>0.01688747176734315</v>
       </c>
       <c r="C67">
-        <v>-0.01974266812134225</v>
+        <v>0.03767509688583977</v>
       </c>
       <c r="D67">
-        <v>0.05030407787184977</v>
+        <v>0.04405036832388006</v>
       </c>
       <c r="E67">
-        <v>0.004090276164453004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.041960430913067</v>
+      </c>
+      <c r="F67">
+        <v>-0.01971314873734564</v>
+      </c>
+      <c r="G67">
+        <v>-0.007049199177020729</v>
+      </c>
+      <c r="H67">
+        <v>0.03064304780945524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2135540937563353</v>
+        <v>0.2786956550426273</v>
       </c>
       <c r="C68">
-        <v>0.133197321635905</v>
+        <v>-0.06627018530117146</v>
       </c>
       <c r="D68">
-        <v>0.02265521426156891</v>
+        <v>0.03358403485243181</v>
       </c>
       <c r="E68">
-        <v>0.02734543571714386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01002351162077418</v>
+      </c>
+      <c r="F68">
+        <v>0.02238845138920128</v>
+      </c>
+      <c r="G68">
+        <v>-0.04661891084230618</v>
+      </c>
+      <c r="H68">
+        <v>-0.004849339708870999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04904140738478084</v>
+        <v>0.01459691174491474</v>
       </c>
       <c r="C69">
-        <v>-0.1164560929553608</v>
+        <v>0.1108684603786636</v>
       </c>
       <c r="D69">
-        <v>0.06817910403572562</v>
+        <v>0.01668609947285278</v>
       </c>
       <c r="E69">
-        <v>0.03797278737533947</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01213581982145813</v>
+      </c>
+      <c r="F69">
+        <v>-0.01058146138493268</v>
+      </c>
+      <c r="G69">
+        <v>0.009059003547236827</v>
+      </c>
+      <c r="H69">
+        <v>-0.002737219884184983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2330593119173243</v>
+        <v>0.2718934091947598</v>
       </c>
       <c r="C71">
-        <v>0.155399929073321</v>
+        <v>-0.08125417277940122</v>
       </c>
       <c r="D71">
-        <v>0.0180554484932838</v>
+        <v>0.01147360667465096</v>
       </c>
       <c r="E71">
-        <v>0.006968140722100563</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.006406017197702138</v>
+      </c>
+      <c r="F71">
+        <v>0.01155734766794997</v>
+      </c>
+      <c r="G71">
+        <v>-0.041727056580955</v>
+      </c>
+      <c r="H71">
+        <v>0.01708038203010493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0974186062268544</v>
+        <v>0.06311610671441051</v>
       </c>
       <c r="C72">
-        <v>-0.07858719254951779</v>
+        <v>0.1243127013434098</v>
       </c>
       <c r="D72">
-        <v>0.09737081667804193</v>
+        <v>0.04060792385277602</v>
       </c>
       <c r="E72">
-        <v>0.03445942922626133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08556824409593512</v>
+      </c>
+      <c r="F72">
+        <v>-0.01693506912157431</v>
+      </c>
+      <c r="G72">
+        <v>0.03129356404618822</v>
+      </c>
+      <c r="H72">
+        <v>-0.001621138999044698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1731188034600033</v>
+        <v>0.157262205712992</v>
       </c>
       <c r="C73">
-        <v>-0.08331880273577344</v>
+        <v>0.1672307898724159</v>
       </c>
       <c r="D73">
-        <v>0.1962555925990751</v>
+        <v>0.04809864464402008</v>
       </c>
       <c r="E73">
-        <v>-0.09421688143685741</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2620144428382967</v>
+      </c>
+      <c r="F73">
+        <v>-0.3117283099294951</v>
+      </c>
+      <c r="G73">
+        <v>0.4150888727565365</v>
+      </c>
+      <c r="H73">
+        <v>-0.1431804829465963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09790394647978952</v>
+        <v>0.0517760756982925</v>
       </c>
       <c r="C74">
-        <v>-0.1219386028892693</v>
+        <v>0.1411889256546837</v>
       </c>
       <c r="D74">
-        <v>-0.04660368975392339</v>
+        <v>-0.04591923596219655</v>
       </c>
       <c r="E74">
-        <v>0.01245933042637519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03300043703164383</v>
+      </c>
+      <c r="F74">
+        <v>0.03369985231321793</v>
+      </c>
+      <c r="G74">
+        <v>0.003517981538946707</v>
+      </c>
+      <c r="H74">
+        <v>-0.001268364020300361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2099304563113216</v>
+        <v>0.09724727261249651</v>
       </c>
       <c r="C75">
-        <v>-0.2171229829562679</v>
+        <v>0.2611980500587908</v>
       </c>
       <c r="D75">
-        <v>-0.03794712699450596</v>
+        <v>-0.1100760732121832</v>
       </c>
       <c r="E75">
-        <v>-0.0967608855590802</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1238030309875395</v>
+      </c>
+      <c r="F75">
+        <v>-0.05269673750799813</v>
+      </c>
+      <c r="G75">
+        <v>-0.10979090583522</v>
+      </c>
+      <c r="H75">
+        <v>0.08268939938912888</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1273159595581896</v>
+        <v>0.0601687910085957</v>
       </c>
       <c r="C76">
-        <v>-0.1470354933234453</v>
+        <v>0.1780650249370367</v>
       </c>
       <c r="D76">
-        <v>0.01274732978405094</v>
+        <v>-0.04472177603071509</v>
       </c>
       <c r="E76">
-        <v>-0.0143096572679811</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04149754421953662</v>
+      </c>
+      <c r="F76">
+        <v>-0.006465896990317103</v>
+      </c>
+      <c r="G76">
+        <v>-0.04730693517727424</v>
+      </c>
+      <c r="H76">
+        <v>0.01495259460501389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004114429073120248</v>
+        <v>-0.006350657234816457</v>
       </c>
       <c r="C77">
-        <v>-0.08168334595352193</v>
+        <v>0.1197049064353816</v>
       </c>
       <c r="D77">
-        <v>0.2243749744040572</v>
+        <v>0.5830294346141831</v>
       </c>
       <c r="E77">
-        <v>0.1879667980429734</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7220571572732216</v>
+      </c>
+      <c r="F77">
+        <v>-0.1444539718062102</v>
+      </c>
+      <c r="G77">
+        <v>0.1877475874983544</v>
+      </c>
+      <c r="H77">
+        <v>-0.004278600463131132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03180838533133175</v>
+        <v>0.02194388336059957</v>
       </c>
       <c r="C78">
-        <v>-0.07685265248411205</v>
+        <v>0.09603350523596317</v>
       </c>
       <c r="D78">
-        <v>0.1436088735200828</v>
+        <v>0.07473078483706772</v>
       </c>
       <c r="E78">
-        <v>0.1099257984873347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0920241418244617</v>
+      </c>
+      <c r="F78">
+        <v>0.04371835594750249</v>
+      </c>
+      <c r="G78">
+        <v>-0.0979881162605588</v>
+      </c>
+      <c r="H78">
+        <v>-0.03796532234583923</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1081340267918764</v>
+        <v>0.05121998561635974</v>
       </c>
       <c r="C79">
-        <v>-0.212730111024156</v>
+        <v>0.2171884179393023</v>
       </c>
       <c r="D79">
-        <v>-0.5879464596588074</v>
+        <v>-0.1401207644245514</v>
       </c>
       <c r="E79">
-        <v>0.6848741170456174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1070022833021154</v>
+      </c>
+      <c r="F79">
+        <v>0.775801651597722</v>
+      </c>
+      <c r="G79">
+        <v>0.4469283931116069</v>
+      </c>
+      <c r="H79">
+        <v>-0.01598999714785918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003755584809084921</v>
+        <v>0.007339971075738601</v>
       </c>
       <c r="C80">
-        <v>-0.04561527105587506</v>
+        <v>0.04674537878601068</v>
       </c>
       <c r="D80">
-        <v>0.04059595318431651</v>
+        <v>0.02133803871912956</v>
       </c>
       <c r="E80">
-        <v>0.004491631806780317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06783247460587735</v>
+      </c>
+      <c r="F80">
+        <v>-0.005942521145076447</v>
+      </c>
+      <c r="G80">
+        <v>-0.01121631608911766</v>
+      </c>
+      <c r="H80">
+        <v>-0.08859811790509041</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09844297972940198</v>
+        <v>0.03343130849729725</v>
       </c>
       <c r="C81">
-        <v>-0.1414395085154461</v>
+        <v>0.1585504230600695</v>
       </c>
       <c r="D81">
-        <v>-0.07578260705270035</v>
+        <v>-0.07155681683489254</v>
       </c>
       <c r="E81">
-        <v>-0.0179447190350779</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06140063725973617</v>
+      </c>
+      <c r="F81">
+        <v>0.05135910554345689</v>
+      </c>
+      <c r="G81">
+        <v>-0.0670252249252373</v>
+      </c>
+      <c r="H81">
+        <v>-0.003468081828266994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2035847281969845</v>
+        <v>0.07717728304005725</v>
       </c>
       <c r="C82">
-        <v>-0.3098499240514419</v>
+        <v>0.2946274578462805</v>
       </c>
       <c r="D82">
-        <v>-0.07378404548518576</v>
+        <v>-0.201928953941619</v>
       </c>
       <c r="E82">
-        <v>-0.2347748307910566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1256867942881029</v>
+      </c>
+      <c r="F82">
+        <v>-0.1113176950420683</v>
+      </c>
+      <c r="G82">
+        <v>-0.1525513063720041</v>
+      </c>
+      <c r="H82">
+        <v>0.007221257576402555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0143851059454628</v>
+        <v>-0.00745439925983699</v>
       </c>
       <c r="C83">
-        <v>-0.04930853308593199</v>
+        <v>0.01704386326606172</v>
       </c>
       <c r="D83">
-        <v>0.001310875864220832</v>
+        <v>0.02209821716683139</v>
       </c>
       <c r="E83">
-        <v>0.04191052563449486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09691813207666784</v>
+      </c>
+      <c r="F83">
+        <v>0.09995710264691954</v>
+      </c>
+      <c r="G83">
+        <v>-0.243368567193641</v>
+      </c>
+      <c r="H83">
+        <v>-0.9016561661060418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001197987243430235</v>
+        <v>-0.004839013149120418</v>
       </c>
       <c r="C84">
-        <v>-0.004305391271613002</v>
+        <v>0.01677217444152896</v>
       </c>
       <c r="D84">
-        <v>0.01005584950019022</v>
+        <v>0.04331340274224164</v>
       </c>
       <c r="E84">
-        <v>0.002030754278425714</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.021570825318989</v>
+      </c>
+      <c r="F84">
+        <v>0.03079305875257207</v>
+      </c>
+      <c r="G84">
+        <v>-0.05405304341721185</v>
+      </c>
+      <c r="H84">
+        <v>0.05990621473134273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1267404509287766</v>
+        <v>0.0542046235167748</v>
       </c>
       <c r="C85">
-        <v>-0.1548693887262744</v>
+        <v>0.177333164920419</v>
       </c>
       <c r="D85">
-        <v>-0.08798845090034166</v>
+        <v>-0.115739135570034</v>
       </c>
       <c r="E85">
-        <v>-0.009094866749982555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02865957895976401</v>
+      </c>
+      <c r="F85">
+        <v>0.05756185977872492</v>
+      </c>
+      <c r="G85">
+        <v>-0.01790252556603796</v>
+      </c>
+      <c r="H85">
+        <v>0.0202106436448283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02231520519782713</v>
+        <v>0.01598352699336929</v>
       </c>
       <c r="C86">
-        <v>-0.01184831035555436</v>
+        <v>0.04170180205377228</v>
       </c>
       <c r="D86">
-        <v>0.110378591763877</v>
+        <v>0.1092943687054086</v>
       </c>
       <c r="E86">
-        <v>0.06866690441155868</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01719876904240133</v>
+      </c>
+      <c r="F86">
+        <v>0.02390980778825208</v>
+      </c>
+      <c r="G86">
+        <v>0.005574363510532614</v>
+      </c>
+      <c r="H86">
+        <v>0.01666374860314059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02064223596273495</v>
+        <v>0.009919715932813839</v>
       </c>
       <c r="C87">
-        <v>-0.03766880308783353</v>
+        <v>0.06792390277153328</v>
       </c>
       <c r="D87">
-        <v>0.124386882207071</v>
+        <v>0.1198811675662566</v>
       </c>
       <c r="E87">
-        <v>0.1060130425644671</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.06514935530871251</v>
+      </c>
+      <c r="F87">
+        <v>0.04768217707670461</v>
+      </c>
+      <c r="G87">
+        <v>-0.08309315551315974</v>
+      </c>
+      <c r="H87">
+        <v>0.005089700896683536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04599018701951507</v>
+        <v>0.0335102092213909</v>
       </c>
       <c r="C88">
-        <v>-0.04906918769947783</v>
+        <v>0.07198785043725883</v>
       </c>
       <c r="D88">
-        <v>0.007939767125283327</v>
+        <v>0.01519401326676959</v>
       </c>
       <c r="E88">
-        <v>0.02734443218011468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03901271840886024</v>
+      </c>
+      <c r="F88">
+        <v>0.02254965875955495</v>
+      </c>
+      <c r="G88">
+        <v>0.009895439166312973</v>
+      </c>
+      <c r="H88">
+        <v>0.009160518196395517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3479216903260928</v>
+        <v>0.399577588854214</v>
       </c>
       <c r="C89">
-        <v>0.2932834823388918</v>
+        <v>-0.1630337921088717</v>
       </c>
       <c r="D89">
-        <v>0.01758600826166173</v>
+        <v>0.04687446184748126</v>
       </c>
       <c r="E89">
-        <v>0.1219614103800343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02014781179783678</v>
+      </c>
+      <c r="F89">
+        <v>0.08443467907894497</v>
+      </c>
+      <c r="G89">
+        <v>-0.09486574943398483</v>
+      </c>
+      <c r="H89">
+        <v>-0.05747647271293143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2784375662336981</v>
+        <v>0.3231117482097269</v>
       </c>
       <c r="C90">
-        <v>0.2120907966940113</v>
+        <v>-0.102164666204525</v>
       </c>
       <c r="D90">
-        <v>0.060180613638268</v>
+        <v>0.03414090791242389</v>
       </c>
       <c r="E90">
-        <v>0.01610924493256601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.002202114804397653</v>
+      </c>
+      <c r="F90">
+        <v>-0.008898056921111636</v>
+      </c>
+      <c r="G90">
+        <v>-0.05167874314461607</v>
+      </c>
+      <c r="H90">
+        <v>-0.005429536111568054</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.133119887243385</v>
+        <v>0.0635901805270473</v>
       </c>
       <c r="C91">
-        <v>-0.1993809472932987</v>
+        <v>0.202425564651693</v>
       </c>
       <c r="D91">
-        <v>-0.09111271220247157</v>
+        <v>-0.08951016595019942</v>
       </c>
       <c r="E91">
-        <v>0.02742196906693266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09236501718810142</v>
+      </c>
+      <c r="F91">
+        <v>0.05845616692831624</v>
+      </c>
+      <c r="G91">
+        <v>-0.009111560207675125</v>
+      </c>
+      <c r="H91">
+        <v>-0.02021226789530842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.265964605080749</v>
+        <v>0.3383819298572564</v>
       </c>
       <c r="C92">
-        <v>0.2396797369364108</v>
+        <v>-0.1426136191042054</v>
       </c>
       <c r="D92">
-        <v>-0.03282886113060558</v>
+        <v>0.03743426172224747</v>
       </c>
       <c r="E92">
-        <v>0.02776518946232218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06183472560803351</v>
+      </c>
+      <c r="F92">
+        <v>0.03895521691667439</v>
+      </c>
+      <c r="G92">
+        <v>-0.002313677730317491</v>
+      </c>
+      <c r="H92">
+        <v>0.1274360934133487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2962332275100773</v>
+        <v>0.3297174585009198</v>
       </c>
       <c r="C93">
-        <v>0.2183544885780943</v>
+        <v>-0.1168580666407828</v>
       </c>
       <c r="D93">
-        <v>-0.02018496895981998</v>
+        <v>-0.02256193189435722</v>
       </c>
       <c r="E93">
-        <v>-0.01275159719238866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003955478864788454</v>
+      </c>
+      <c r="F93">
+        <v>0.00772555996185655</v>
+      </c>
+      <c r="G93">
+        <v>0.02580515106328237</v>
+      </c>
+      <c r="H93">
+        <v>0.0242311182896997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2485507348401373</v>
+        <v>0.1186205369589177</v>
       </c>
       <c r="C94">
-        <v>-0.2900209604693065</v>
+        <v>0.320570500834381</v>
       </c>
       <c r="D94">
-        <v>-0.1684615298680745</v>
+        <v>-0.3313444630902548</v>
       </c>
       <c r="E94">
-        <v>-0.3239549494216523</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1797959600513052</v>
+      </c>
+      <c r="F94">
+        <v>-0.1488363889549972</v>
+      </c>
+      <c r="G94">
+        <v>-0.2994889787753602</v>
+      </c>
+      <c r="H94">
+        <v>0.09969178583160372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00255331558051458</v>
+        <v>0.0132258530157585</v>
       </c>
       <c r="C95">
-        <v>-0.0537799069975337</v>
+        <v>0.07764146256716527</v>
       </c>
       <c r="D95">
-        <v>0.1110148121531272</v>
+        <v>0.1460359301151972</v>
       </c>
       <c r="E95">
-        <v>0.07357263353040407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07671504606761767</v>
+      </c>
+      <c r="F95">
+        <v>-0.02965622361645456</v>
+      </c>
+      <c r="G95">
+        <v>0.05030436191212104</v>
+      </c>
+      <c r="H95">
+        <v>0.06491659180442808</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002494925805019654</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0008121521764904961</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006131621372534581</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.002778232734286215</v>
+      </c>
+      <c r="F97">
+        <v>-5.172398954201888e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0002204698511636432</v>
+      </c>
+      <c r="H97">
+        <v>0.005430333486600197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1455527742553212</v>
+        <v>0.132597266427242</v>
       </c>
       <c r="C98">
-        <v>-0.1031542630471599</v>
+        <v>0.1658952562056453</v>
       </c>
       <c r="D98">
-        <v>0.1276495501362477</v>
+        <v>0.006234816465986568</v>
       </c>
       <c r="E98">
-        <v>-0.1097179630728538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1642480886466942</v>
+      </c>
+      <c r="F98">
+        <v>-0.260596021749415</v>
+      </c>
+      <c r="G98">
+        <v>0.3018614162745192</v>
+      </c>
+      <c r="H98">
+        <v>-0.1211047667511038</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004680442564543097</v>
+        <v>0.0006912458487977732</v>
       </c>
       <c r="C101">
-        <v>-0.021912056301663</v>
+        <v>0.03930361245077211</v>
       </c>
       <c r="D101">
-        <v>0.06777695910455932</v>
+        <v>0.08370425363602074</v>
       </c>
       <c r="E101">
-        <v>0.05755906389255689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1096742380363768</v>
+      </c>
+      <c r="F101">
+        <v>0.03970233736020935</v>
+      </c>
+      <c r="G101">
+        <v>-0.0110270272999425</v>
+      </c>
+      <c r="H101">
+        <v>-0.0438098748477143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08355263805773842</v>
+        <v>0.01860328014326144</v>
       </c>
       <c r="C102">
-        <v>-0.1655576708533379</v>
+        <v>0.1360933738223307</v>
       </c>
       <c r="D102">
-        <v>-0.0002827731691649842</v>
+        <v>-0.08467859006638007</v>
       </c>
       <c r="E102">
-        <v>-0.10246341507987</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.06722874502627288</v>
+      </c>
+      <c r="F102">
+        <v>-0.08246647594684235</v>
+      </c>
+      <c r="G102">
+        <v>-0.01396424326765447</v>
+      </c>
+      <c r="H102">
+        <v>-0.02372683210801042</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
